--- a/Documentation/Iteration1.xlsx
+++ b/Documentation/Iteration1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladj\Documents\UNI\First year seminar\ProView\ProView\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1669F3A-40A5-48F9-B094-D0FA971408B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="115">
   <si>
     <t>Main task</t>
   </si>
@@ -355,12 +361,18 @@
   </si>
   <si>
     <t>ID (From Backlog)</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>The main goal of the first iteration is to develop MVP and receive feedback from Bauska's municipality and, possibly, citizens. All teams are going to cooperate in order to achieve the best possible quality of the first iteration results. Teams are going to develop all the functionality and design of our website. All team members are going to judge the first version of a fully developed website and make required improvements.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yy/mm/dd/;@"/>
   </numFmts>
@@ -438,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,6 +476,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,6 +488,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -521,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,9 +572,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,6 +624,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,25 +816,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="72.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -801,8 +855,11 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -819,8 +876,11 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -838,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -856,7 +916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -874,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -892,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -910,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -928,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -946,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -964,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -982,7 +1042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1000,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1018,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1036,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1054,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1072,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1090,7 +1150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1108,7 +1168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1126,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1144,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -1162,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>32</v>
       </c>
@@ -1180,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>33</v>
       </c>
@@ -1198,7 +1258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>34</v>
       </c>
@@ -1216,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>35</v>
       </c>
@@ -1234,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>36</v>
       </c>
@@ -1252,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>37</v>
       </c>
@@ -1270,7 +1330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>38</v>
       </c>
@@ -1288,7 +1348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>39</v>
       </c>
@@ -1306,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>40</v>
       </c>
@@ -1324,7 +1384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>41</v>
       </c>
@@ -1342,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42</v>
       </c>
@@ -1360,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>43</v>
       </c>
@@ -1378,7 +1438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44</v>
       </c>
@@ -1396,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>54</v>
       </c>
@@ -1414,7 +1474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>55</v>
       </c>
@@ -1432,7 +1492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>56</v>
       </c>
@@ -1450,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>57</v>
       </c>
@@ -1468,7 +1528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>58</v>
       </c>
@@ -1486,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>59</v>
       </c>
@@ -1504,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>63</v>
       </c>
@@ -1522,7 +1582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>64</v>
       </c>
@@ -1540,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>65</v>
       </c>
@@ -1558,7 +1618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>78</v>
       </c>
@@ -1576,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>79</v>
       </c>
@@ -1594,7 +1654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>80</v>
       </c>
@@ -1612,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>81</v>
       </c>
@@ -1630,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>82</v>
       </c>
@@ -1648,7 +1708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>83</v>
       </c>
@@ -1666,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>84</v>
       </c>
@@ -1684,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>85</v>
       </c>
@@ -1702,7 +1762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>86</v>
       </c>
@@ -1720,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>87</v>
       </c>
@@ -1738,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>88</v>
       </c>
@@ -1756,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>89</v>
       </c>
@@ -1774,7 +1834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>90</v>
       </c>
@@ -1792,7 +1852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>104</v>
       </c>
@@ -1810,7 +1870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>105</v>
       </c>
@@ -1828,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>106</v>
       </c>
@@ -1846,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>107</v>
       </c>
@@ -1864,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>108</v>
       </c>
@@ -1882,7 +1942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>109</v>
       </c>
@@ -1900,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>110</v>
       </c>
@@ -1918,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>111</v>
       </c>
@@ -1936,7 +1996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>112</v>
       </c>
@@ -1954,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>113</v>
       </c>
@@ -1972,7 +2032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>114</v>
       </c>
@@ -1990,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>115</v>
       </c>
@@ -2008,7 +2068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>116</v>
       </c>
@@ -2026,7 +2086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>130</v>
       </c>
@@ -2044,7 +2104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>131</v>
       </c>
@@ -2062,7 +2122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>132</v>
       </c>
@@ -2080,7 +2140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>133</v>
       </c>
@@ -2098,7 +2158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>134</v>
       </c>
@@ -2116,7 +2176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>135</v>
       </c>
@@ -2134,7 +2194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>136</v>
       </c>
@@ -2152,7 +2212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>137</v>
       </c>
@@ -2170,7 +2230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>138</v>
       </c>
@@ -2188,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>139</v>
       </c>
@@ -2206,7 +2266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>140</v>
       </c>
@@ -2224,7 +2284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>141</v>
       </c>
@@ -2242,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>142</v>
       </c>
@@ -2260,7 +2320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>143</v>
       </c>
@@ -2278,7 +2338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>144</v>
       </c>
@@ -2296,7 +2356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>145</v>
       </c>
@@ -2314,7 +2374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>146</v>
       </c>
@@ -2332,7 +2392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>147</v>
       </c>
@@ -2350,7 +2410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>148</v>
       </c>
@@ -2368,7 +2428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>149</v>
       </c>
@@ -2386,7 +2446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>150</v>
       </c>
@@ -2404,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>151</v>
       </c>
@@ -2422,7 +2482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>162</v>
       </c>
@@ -2440,7 +2500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>163</v>
       </c>
@@ -2458,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>166</v>
       </c>
@@ -2476,7 +2536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>167</v>
       </c>
@@ -2494,7 +2554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>168</v>
       </c>
@@ -2512,7 +2572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>169</v>
       </c>
@@ -2536,24 +2596,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
